--- a/documents/MCI-Timesheet/MCI-Timetsheet-week6-team21-a1692335.xlsx
+++ b/documents/MCI-Timesheet/MCI-Timetsheet-week6-team21-a1692335.xlsx
@@ -659,8 +659,8 @@
   </sheetPr>
   <dimension ref="A2:AW13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -704,7 +704,7 @@
         <v>3</v>
       </c>
       <c r="H3" s="18">
-        <v>42856</v>
+        <v>42828</v>
       </c>
     </row>
     <row r="5" spans="1:49" ht="32" x14ac:dyDescent="0.2">
@@ -744,7 +744,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="19">
-        <v>42859</v>
+        <v>42828</v>
       </c>
       <c r="C6" s="15">
         <v>0.33333333333333331</v>
@@ -811,13 +811,13 @@
         <v>13</v>
       </c>
       <c r="B7" s="19">
-        <v>42857</v>
+        <v>42829</v>
       </c>
       <c r="C7" s="16">
         <v>0.58333333333333337</v>
       </c>
       <c r="D7" s="16">
-        <v>0.20833333333333334</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E7" s="11">
         <v>3</v>
@@ -878,7 +878,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="19">
-        <v>42858</v>
+        <v>42830</v>
       </c>
       <c r="C8" s="15">
         <v>0.54166666666666663</v>
@@ -944,7 +944,9 @@
       <c r="A9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="19"/>
+      <c r="B9" s="19">
+        <v>42831</v>
+      </c>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
       <c r="E9" s="11"/>
@@ -998,7 +1000,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="19">
-        <v>42861</v>
+        <v>42832</v>
       </c>
       <c r="C10" s="15">
         <v>0.45833333333333298</v>
@@ -1064,7 +1066,9 @@
       <c r="A11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="19"/>
+      <c r="B11" s="19">
+        <v>42833</v>
+      </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
       <c r="E11" s="11"/>
@@ -1118,7 +1122,7 @@
         <v>20</v>
       </c>
       <c r="B12" s="19">
-        <v>42856</v>
+        <v>42834</v>
       </c>
       <c r="C12" s="16">
         <v>0.33333333333333331</v>
